--- a/hardware/gen6/MotherBoard/mother_Board_BOM.xlsx
+++ b/hardware/gen6/MotherBoard/mother_Board_BOM.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27729"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="28209"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/catodonnell/Documents/GitHub/robocup-ee/hardware/gen5/MotherBoard/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="-20" windowWidth="14400" windowHeight="16480" tabRatio="500"/>
+    <workbookView xWindow="11200" yWindow="460" windowWidth="14400" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,8 +17,11 @@
   <definedNames>
     <definedName name="partlistKicker" localSheetId="0">Sheet1!$A$1:$F$69</definedName>
   </definedNames>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1171,6 +1179,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1503,10 +1516,10 @@
   <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="9" bestFit="1" customWidth="1"/>
@@ -1516,7 +1529,7 @@
     <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1545,7 +1558,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -1575,7 +1588,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -1605,7 +1618,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>16</v>
       </c>
@@ -1635,7 +1648,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>20</v>
       </c>
@@ -1665,7 +1678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1695,7 +1708,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>247</v>
       </c>
@@ -1725,7 +1738,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>246</v>
       </c>
@@ -1755,7 +1768,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>265</v>
       </c>
@@ -1785,7 +1798,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>250</v>
       </c>
@@ -1815,7 +1828,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>249</v>
       </c>
@@ -1845,7 +1858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>251</v>
       </c>
@@ -1875,7 +1888,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1905,7 +1918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>248</v>
       </c>
@@ -1935,7 +1948,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>266</v>
       </c>
@@ -1956,7 +1969,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>42</v>
       </c>
@@ -1986,7 +1999,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>45</v>
       </c>
@@ -2016,7 +2029,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>252</v>
       </c>
@@ -2046,7 +2059,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>50</v>
       </c>
@@ -2076,7 +2089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>53</v>
       </c>
@@ -2106,7 +2119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>227</v>
       </c>
@@ -2136,7 +2149,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>59</v>
       </c>
@@ -2163,7 +2176,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>63</v>
       </c>
@@ -2193,7 +2206,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>66</v>
       </c>
@@ -2223,7 +2236,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>71</v>
       </c>
@@ -2253,7 +2266,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>228</v>
       </c>
@@ -2283,7 +2296,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>78</v>
       </c>
@@ -2313,7 +2326,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>80</v>
       </c>
@@ -2343,7 +2356,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>226</v>
       </c>
@@ -2373,7 +2386,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>226</v>
       </c>
@@ -2403,7 +2416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>86</v>
       </c>
@@ -2430,7 +2443,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>88</v>
       </c>
@@ -2458,7 +2471,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>92</v>
       </c>
@@ -2484,7 +2497,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>230</v>
       </c>
@@ -2511,7 +2524,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>96</v>
       </c>
@@ -2541,7 +2554,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>98</v>
       </c>
@@ -2568,7 +2581,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>102</v>
       </c>
@@ -2598,7 +2611,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>253</v>
       </c>
@@ -2628,7 +2641,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>108</v>
       </c>
@@ -2658,7 +2671,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>254</v>
       </c>
@@ -2688,7 +2701,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>260</v>
       </c>
@@ -2718,7 +2731,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>255</v>
       </c>
@@ -2748,7 +2761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>257</v>
       </c>
@@ -2778,7 +2791,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>119</v>
       </c>
@@ -2804,11 +2817,11 @@
         <v>1</v>
       </c>
       <c r="I44">
-        <f>10*H44*2</f>
+        <f t="shared" ref="I44:I49" si="2">10*H44*2</f>
         <v>20</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>122</v>
       </c>
@@ -2834,11 +2847,11 @@
         <v>1</v>
       </c>
       <c r="I45">
-        <f>10*H45*2</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>125</v>
       </c>
@@ -2864,11 +2877,11 @@
         <v>1</v>
       </c>
       <c r="I46">
-        <f>10*H46*2</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>127</v>
       </c>
@@ -2894,11 +2907,11 @@
         <v>1</v>
       </c>
       <c r="I47">
-        <f>10*H47*2</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>130</v>
       </c>
@@ -2924,11 +2937,11 @@
         <v>1</v>
       </c>
       <c r="I48">
-        <f>10*H48*2</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>133</v>
       </c>
@@ -2954,11 +2967,11 @@
         <v>1</v>
       </c>
       <c r="I49">
-        <f>10*H49*2</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>135</v>
       </c>
@@ -2988,7 +3001,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>256</v>
       </c>
@@ -3018,7 +3031,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>139</v>
       </c>
@@ -3048,7 +3061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>258</v>
       </c>
@@ -3078,7 +3091,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>259</v>
       </c>
@@ -3108,7 +3121,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -3138,7 +3151,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>150</v>
       </c>
@@ -3168,7 +3181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>154</v>
       </c>
@@ -3198,7 +3211,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>157</v>
       </c>
@@ -3228,7 +3241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>159</v>
       </c>
@@ -3258,7 +3271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>164</v>
       </c>
@@ -3288,7 +3301,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>168</v>
       </c>
@@ -3318,7 +3331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>172</v>
       </c>
@@ -3348,7 +3361,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>176</v>
       </c>
@@ -3378,7 +3391,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>180</v>
       </c>
@@ -3408,7 +3421,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="65" spans="1:10">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>184</v>
       </c>
@@ -3438,7 +3451,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>187</v>
       </c>
@@ -3464,11 +3477,11 @@
         <v>1</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I97" si="2">10*H66</f>
+        <f t="shared" ref="I66:I71" si="3">10*H66</f>
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:10">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>192</v>
       </c>
@@ -3494,11 +3507,11 @@
         <v>1</v>
       </c>
       <c r="I67">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:10">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>196</v>
       </c>
@@ -3524,11 +3537,11 @@
         <v>1</v>
       </c>
       <c r="I68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>200</v>
       </c>
@@ -3554,11 +3567,11 @@
         <v>1</v>
       </c>
       <c r="I69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:10">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
         <v>217</v>
       </c>
@@ -3574,14 +3587,14 @@
         <v>16</v>
       </c>
       <c r="I70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="J70" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="71" spans="1:10">
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>286</v>
       </c>
@@ -3601,7 +3614,7 @@
         <v>3</v>
       </c>
       <c r="I71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>30</v>
       </c>
     </row>
@@ -3625,10 +3638,5 @@
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>